--- a/Data Wrangling Cheat Sheet.xlsx
+++ b/Data Wrangling Cheat Sheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E4CAB-160A-44FD-8182-205B2305AB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972DEC60-5993-4D8E-BBD8-BEA33EB6C78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Gathering Data" sheetId="1" r:id="rId1"/>
-    <sheet name="NAME 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Command Line" sheetId="2" r:id="rId2"/>
     <sheet name="NAME 3" sheetId="3" r:id="rId3"/>
     <sheet name="NAME 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Command Line'!$A$3:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Gathering Data'!$A$3:$D$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'NAME 2'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'NAME 3'!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'NAME 4'!$A$1:$D$15</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Action</t>
   </si>
@@ -70,6 +70,169 @@
   </si>
   <si>
     <t>Gathering Data</t>
+  </si>
+  <si>
+    <t>Sort Values</t>
+  </si>
+  <si>
+    <t>Allows you to sort rows of data using a column like in SQL or Excel</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>df.sort_values(by = ['column_name'])</t>
+  </si>
+  <si>
+    <t>Replace Values</t>
+  </si>
+  <si>
+    <t>Replace specific values often using a for loop which runs through and compares existing value with something</t>
+  </si>
+  <si>
+    <t>df.replace ('original','new',inplace=True)</t>
+  </si>
+  <si>
+    <t>https://www.digitalcitizen.life/command-prompt-how-use-basic-commands/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command Line Prompt </t>
+  </si>
+  <si>
+    <t>Command Line</t>
+  </si>
+  <si>
+    <t>cd
+cd users\colinmaclaughlincrowd\documents</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This allows you to change the directory and assign specific multi-tiered file path.  Simply entering the blank </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cd</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will bring you back one folder or to the root drive</t>
+    </r>
+  </si>
+  <si>
+    <t>To access another drive, type the drive's letter, followed by ":". For instance, if you wanted to change the drive from "C:" to "D:", you should type "d:" and then press Enter on your keyboard.</t>
+  </si>
+  <si>
+    <t>Change Directory</t>
+  </si>
+  <si>
+    <t>Change Drive</t>
+  </si>
+  <si>
+    <t>d:
+cd /d c:\users\colinmaclaughlincrowd\documents
+c:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows you to view the conents of a directory or folder.  </t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>View Directory Contents</t>
+  </si>
+  <si>
+    <t>New Folder</t>
+  </si>
+  <si>
+    <t>Make a new folder using the make directory function.  To clarify a directory in command line is a folder.  Can also create several folders in a sub-folder structure</t>
+  </si>
+  <si>
+    <t>mkdir new_folder_name
+mkdir mast_folder_name\sub_folder_name</t>
+  </si>
+  <si>
+    <t>Rename Folders</t>
+  </si>
+  <si>
+    <t>Allows you to change the name of folders or files using command prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ren filename.extension newname.extension
+ren city_landscape.jpg great_city.jpg
+</t>
+  </si>
+  <si>
+    <t>Copy Files</t>
+  </si>
+  <si>
+    <t>Simply allows you to move files from one location to another across directories and drives.  When copying in the same location a file path is not needed</t>
+  </si>
+  <si>
+    <t>copy location\filename.extension newlocation\newname.extension
+copy filename.extension newname.extension</t>
+  </si>
+  <si>
+    <t>Copy Folders</t>
+  </si>
+  <si>
+    <t>Copy a folder or directory and all its contents</t>
+  </si>
+  <si>
+    <t>xcopy/s/i location newlocation</t>
+  </si>
+  <si>
+    <t>Delete Files</t>
+  </si>
+  <si>
+    <t>del directoryname
+del filename.extension</t>
+  </si>
+  <si>
+    <t>Simply allows you to delete files in a folder (but not the actual folder).  Either navigate to the specific directory to delete or specify the file path to the selected file</t>
+  </si>
+  <si>
+    <t>Delete Folders</t>
+  </si>
+  <si>
+    <t>This is the second step that allows you to delete the actual empty folder once deleting its contents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd directoryname
+</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>To get a list of commands in command line</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>Go Back</t>
+  </si>
+  <si>
+    <t>To go back a level in the current directory or file path</t>
+  </si>
+  <si>
+    <t>cd..\</t>
   </si>
 </sst>
 </file>
@@ -79,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +288,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +404,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,8 +740,8 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,17 +789,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -702,12 +919,23 @@
       <c r="C23" s="10"/>
       <c r="D23" s="6"/>
     </row>
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -719,10 +947,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,96 +963,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -832,7 +1144,28 @@
       <c r="C15" s="10"/>
       <c r="D15" s="6"/>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
